--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-abra-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-abra-top-by-races-count.xlsx
@@ -50,7 +50,7 @@
     <t>sorrovv</t>
   </si>
   <si>
-    <t>143 ч. 8 мин. 15 сек.</t>
+    <t>143 ч. 08 мин. 15 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -59,7 +59,7 @@
     <t>gosknyaz</t>
   </si>
   <si>
-    <t>109 ч. 2 мин. 54 сек.</t>
+    <t>109 ч. 02 мин. 54 сек.</t>
   </si>
   <si>
     <t>3</t>
@@ -77,7 +77,7 @@
     <t>iji</t>
   </si>
   <si>
-    <t>99 ч. 19 мин. 0 сек.</t>
+    <t>99 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>5</t>
@@ -104,7 +104,7 @@
     <t>Uri55</t>
   </si>
   <si>
-    <t>89 ч. 32 мин. 0 сек.</t>
+    <t>89 ч. 32 мин. 00 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -113,7 +113,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>48 ч. 1 мин. 55 сек.</t>
+    <t>48 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -131,7 +131,7 @@
     <t>Шизонт</t>
   </si>
   <si>
-    <t>52 ч. 58 мин. 6 сек.</t>
+    <t>52 ч. 58 мин. 06 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -140,7 +140,7 @@
     <t>albert-</t>
   </si>
   <si>
-    <t>47 ч. 4 мин. 59 сек.</t>
+    <t>47 ч. 04 мин. 59 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -158,7 +158,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>44 ч. 7 мин. 41 сек.</t>
+    <t>44 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>14</t>
@@ -185,7 +185,7 @@
     <t>Дело_в_шляпе</t>
   </si>
   <si>
-    <t>38 ч. 1 мин. 52 сек.</t>
+    <t>38 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -221,7 +221,7 @@
     <t>SamArKin</t>
   </si>
   <si>
-    <t>49 ч. 0 мин. 57 сек.</t>
+    <t>49 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>21</t>
@@ -248,7 +248,7 @@
     <t>Satory</t>
   </si>
   <si>
-    <t>38 ч. 4 мин. 9 сек.</t>
+    <t>38 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>24</t>
@@ -266,7 +266,7 @@
     <t>vd49</t>
   </si>
   <si>
-    <t>86 ч. 51 мин. 5 сек.</t>
+    <t>86 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>26</t>
@@ -275,7 +275,7 @@
     <t>ТОМА-АТОМНАЯ</t>
   </si>
   <si>
-    <t>32 ч. 40 мин. 9 сек.</t>
+    <t>32 ч. 40 мин. 09 сек.</t>
   </si>
   <si>
     <t>27</t>
@@ -302,7 +302,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>46 ч. 36 мин. 1 сек.</t>
+    <t>46 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>30</t>
@@ -311,7 +311,7 @@
     <t>-LVV-</t>
   </si>
   <si>
-    <t>32 ч. 22 мин. 7 сек.</t>
+    <t>32 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>31</t>
@@ -401,7 +401,7 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>33 ч. 1 мин. 28 сек.</t>
+    <t>33 ч. 01 мин. 28 сек.</t>
   </si>
   <si>
     <t>41</t>
@@ -410,7 +410,7 @@
     <t>Nistu</t>
   </si>
   <si>
-    <t>35 ч. 37 мин. 3 сек.</t>
+    <t>35 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -419,7 +419,7 @@
     <t>klausewitz</t>
   </si>
   <si>
-    <t>41 ч. 15 мин. 6 сек.</t>
+    <t>41 ч. 15 мин. 06 сек.</t>
   </si>
   <si>
     <t>43</t>
@@ -446,7 +446,7 @@
     <t>zilok5301</t>
   </si>
   <si>
-    <t>50 ч. 20 мин. 2 сек.</t>
+    <t>50 ч. 20 мин. 02 сек.</t>
   </si>
   <si>
     <t>46</t>
@@ -455,7 +455,7 @@
     <t>kcennia</t>
   </si>
   <si>
-    <t>30 ч. 44 мин. 8 сек.</t>
+    <t>30 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>47</t>
@@ -482,7 +482,7 @@
     <t>Рыжая_</t>
   </si>
   <si>
-    <t>31 ч. 6 мин. 36 сек.</t>
+    <t>31 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>50</t>
@@ -518,13 +518,13 @@
     <t>akanat</t>
   </si>
   <si>
-    <t>38 ч. 12 мин. 4 сек.</t>
+    <t>38 ч. 12 мин. 04 сек.</t>
   </si>
   <si>
     <t>Maksuta</t>
   </si>
   <si>
-    <t>20 ч. 10 мин. 8 сек.</t>
+    <t>20 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>55</t>
@@ -542,7 +542,7 @@
     <t>РодионГ</t>
   </si>
   <si>
-    <t>26 ч. 6 мин. 56 сек.</t>
+    <t>26 ч. 06 мин. 56 сек.</t>
   </si>
   <si>
     <t>57</t>
@@ -569,7 +569,7 @@
     <t>Sergey_Ch</t>
   </si>
   <si>
-    <t>22 ч. 37 мин. 2 сек.</t>
+    <t>22 ч. 37 мин. 02 сек.</t>
   </si>
   <si>
     <t>60</t>
@@ -614,7 +614,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>22 ч. 6 мин. 55 сек.</t>
+    <t>22 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>65</t>
@@ -641,7 +641,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>17 ч. 0 мин. 57 сек.</t>
+    <t>17 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>68</t>
@@ -650,7 +650,7 @@
     <t>strawberries</t>
   </si>
   <si>
-    <t>25 ч. 3 мин. 51 сек.</t>
+    <t>25 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>69</t>
@@ -674,7 +674,7 @@
     <t>vIRwO</t>
   </si>
   <si>
-    <t>18 ч. 22 мин. 0 сек.</t>
+    <t>18 ч. 22 мин. 00 сек.</t>
   </si>
   <si>
     <t>72</t>
@@ -692,7 +692,7 @@
     <t>InsydeR</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 29 сек.</t>
+    <t>19 ч. 03 мин. 29 сек.</t>
   </si>
   <si>
     <t>74</t>
@@ -728,7 +728,7 @@
     <t>Pipl</t>
   </si>
   <si>
-    <t>20 ч. 22 мин. 7 сек.</t>
+    <t>20 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>78</t>
@@ -782,7 +782,7 @@
     <t>Amateur_</t>
   </si>
   <si>
-    <t>18 ч. 4 мин. 55 сек.</t>
+    <t>18 ч. 04 мин. 55 сек.</t>
   </si>
   <si>
     <t>84</t>
@@ -800,7 +800,7 @@
     <t>fishca</t>
   </si>
   <si>
-    <t>20 ч. 37 мин. 8 сек.</t>
+    <t>20 ч. 37 мин. 08 сек.</t>
   </si>
   <si>
     <t>86</t>
@@ -827,7 +827,7 @@
     <t>Gardenstone</t>
   </si>
   <si>
-    <t>19 ч. 5 мин. 20 сек.</t>
+    <t>19 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>89</t>
@@ -836,7 +836,7 @@
     <t>Катушка</t>
   </si>
   <si>
-    <t>21 ч. 26 мин. 3 сек.</t>
+    <t>21 ч. 26 мин. 03 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -899,7 +899,7 @@
     <t>Старец</t>
   </si>
   <si>
-    <t>17 ч. 8 мин. 30 сек.</t>
+    <t>17 ч. 08 мин. 30 сек.</t>
   </si>
   <si>
     <t>97</t>
@@ -962,7 +962,7 @@
     <t>Эхпрокачуу</t>
   </si>
   <si>
-    <t>36 ч. 7 мин. 52 сек.</t>
+    <t>36 ч. 07 мин. 52 сек.</t>
   </si>
   <si>
     <t>104</t>
@@ -1022,7 +1022,7 @@
     <t>Ямастер</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 9 сек.</t>
+    <t>17 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>111</t>
@@ -1049,7 +1049,7 @@
     <t>БурячОК</t>
   </si>
   <si>
-    <t>27 ч. 0 мин. 59 сек.</t>
+    <t>27 ч. 00 мин. 59 сек.</t>
   </si>
   <si>
     <t>114</t>
@@ -1058,7 +1058,7 @@
     <t>Jeena</t>
   </si>
   <si>
-    <t>18 ч. 19 мин. 0 сек.</t>
+    <t>18 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>115</t>
@@ -1076,7 +1076,7 @@
     <t>Numb_kz</t>
   </si>
   <si>
-    <t>16 ч. 22 мин. 5 сек.</t>
+    <t>16 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>117</t>
@@ -1103,7 +1103,7 @@
     <t>Boolbek</t>
   </si>
   <si>
-    <t>26 ч. 9 мин. 10 сек.</t>
+    <t>26 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>120</t>
@@ -1208,7 +1208,7 @@
     <t>DietrichDeurt</t>
   </si>
   <si>
-    <t>20 ч. 31 мин. 6 сек.</t>
+    <t>20 ч. 31 мин. 06 сек.</t>
   </si>
   <si>
     <t>132</t>
@@ -1217,7 +1217,7 @@
     <t>задумчивый</t>
   </si>
   <si>
-    <t>13 ч. 0 мин. 49 сек.</t>
+    <t>13 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>133</t>
@@ -1277,7 +1277,7 @@
     <t>NordVic</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 20 сек.</t>
+    <t>15 ч. 03 мин. 20 сек.</t>
   </si>
   <si>
     <t>140</t>
@@ -1286,7 +1286,7 @@
     <t>Res_Publica</t>
   </si>
   <si>
-    <t>13 ч. 51 мин. 7 сек.</t>
+    <t>13 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>141</t>
@@ -1295,7 +1295,7 @@
     <t>Tatsi_3006</t>
   </si>
   <si>
-    <t>19 ч. 0 мин. 55 сек.</t>
+    <t>19 ч. 00 мин. 55 сек.</t>
   </si>
   <si>
     <t>142</t>
@@ -1346,7 +1346,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>15 ч. 26 мин. 8 сек.</t>
+    <t>15 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>148</t>
@@ -1388,7 +1388,7 @@
     <t>Lelick</t>
   </si>
   <si>
-    <t>11 ч. 48 мин. 5 сек.</t>
+    <t>11 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>153</t>
@@ -1406,7 +1406,7 @@
     <t>170000</t>
   </si>
   <si>
-    <t>8 ч. 32 мин. 4 сек.</t>
+    <t>8 ч. 32 мин. 04 сек.</t>
   </si>
   <si>
     <t>155</t>
@@ -1424,7 +1424,7 @@
     <t>-FORCE-</t>
   </si>
   <si>
-    <t>12 ч. 0 мин. 38 сек.</t>
+    <t>12 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>157</t>
@@ -1442,7 +1442,7 @@
     <t>Realshi</t>
   </si>
   <si>
-    <t>13 ч. 1 мин. 43 сек.</t>
+    <t>13 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>159</t>
@@ -1451,7 +1451,7 @@
     <t>KiD2</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 23 сек.</t>
+    <t>12 ч. 06 мин. 23 сек.</t>
   </si>
   <si>
     <t>160</t>
@@ -1460,7 +1460,7 @@
     <t>Аферист</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 7 сек.</t>
+    <t>12 ч. 06 мин. 07 сек.</t>
   </si>
   <si>
     <t>161–162</t>
@@ -1544,7 +1544,7 @@
     <t>Nowhereman42nd</t>
   </si>
   <si>
-    <t>14 ч. 5 мин. 24 сек.</t>
+    <t>14 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>171</t>
@@ -1553,7 +1553,7 @@
     <t>Alber</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 58 сек.</t>
+    <t>21 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>172</t>
@@ -1571,7 +1571,7 @@
     <t>rovno</t>
   </si>
   <si>
-    <t>13 ч. 42 мин. 7 сек.</t>
+    <t>13 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>174–175</t>
@@ -1595,13 +1595,13 @@
     <t>Hovga</t>
   </si>
   <si>
-    <t>10 ч. 41 мин. 9 сек.</t>
+    <t>10 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>olimpicano</t>
   </si>
   <si>
-    <t>24 ч. 3 мин. 55 сек.</t>
+    <t>24 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>178–179</t>
@@ -1616,7 +1616,7 @@
     <t>keeper555</t>
   </si>
   <si>
-    <t>17 ч. 26 мин. 8 сек.</t>
+    <t>17 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>180</t>
@@ -1688,7 +1688,7 @@
     <t>AlexUnder</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 16 сек.</t>
+    <t>9 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>188–189</t>
@@ -1697,7 +1697,7 @@
     <t>forward-ok</t>
   </si>
   <si>
-    <t>21 ч. 21 мин. 1 сек.</t>
+    <t>21 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>Русинов</t>
@@ -1775,7 +1775,7 @@
     <t>vido88</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 58 сек.</t>
+    <t>13 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>Jon31</t>
@@ -1799,7 +1799,7 @@
     <t>k1netik</t>
   </si>
   <si>
-    <t>15 ч. 58 мин. 3 сек.</t>
+    <t>15 ч. 58 мин. 03 сек.</t>
   </si>
   <si>
     <t>201</t>
@@ -1817,13 +1817,13 @@
     <t>diskorkl</t>
   </si>
   <si>
-    <t>16 ч. 45 мин. 2 сек.</t>
+    <t>16 ч. 45 мин. 02 сек.</t>
   </si>
   <si>
     <t>Bozhidar</t>
   </si>
   <si>
-    <t>17 ч. 27 мин. 1 сек.</t>
+    <t>17 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>204</t>
@@ -1832,7 +1832,7 @@
     <t>_nikki_</t>
   </si>
   <si>
-    <t>12 ч. 5 мин. 52 сек.</t>
+    <t>12 ч. 05 мин. 52 сек.</t>
   </si>
   <si>
     <t>205</t>
@@ -1841,7 +1841,7 @@
     <t>Engi</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 25 сек.</t>
+    <t>16 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>206–207</t>
@@ -1850,7 +1850,7 @@
     <t>Hei5</t>
   </si>
   <si>
-    <t>20 ч. 1 мин. 35 сек.</t>
+    <t>20 ч. 01 мин. 35 сек.</t>
   </si>
   <si>
     <t>ehbq</t>
@@ -1865,7 +1865,7 @@
     <t>Jenty</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 57 сек.</t>
+    <t>13 ч. 08 мин. 57 сек.</t>
   </si>
   <si>
     <t>209</t>
@@ -1883,7 +1883,7 @@
     <t>kostyagordyaev</t>
   </si>
   <si>
-    <t>12 ч. 57 мин. 6 сек.</t>
+    <t>12 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>211–212</t>
@@ -1907,7 +1907,7 @@
     <t>Radchin</t>
   </si>
   <si>
-    <t>16 ч. 38 мин. 2 сек.</t>
+    <t>16 ч. 38 мин. 02 сек.</t>
   </si>
   <si>
     <t>214</t>
@@ -1934,7 +1934,7 @@
     <t>Speed_King</t>
   </si>
   <si>
-    <t>15 ч. 9 мин. 14 сек.</t>
+    <t>15 ч. 09 мин. 14 сек.</t>
   </si>
   <si>
     <t>217–218</t>
@@ -1991,7 +1991,7 @@
     <t>турандот</t>
   </si>
   <si>
-    <t>10 ч. 29 мин. 4 сек.</t>
+    <t>10 ч. 29 мин. 04 сек.</t>
   </si>
   <si>
     <t>224</t>
@@ -2018,7 +2018,7 @@
     <t>iBumble</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 37 сек.</t>
+    <t>13 ч. 07 мин. 37 сек.</t>
   </si>
   <si>
     <t>andr_off</t>
@@ -2066,7 +2066,7 @@
     <t>sneg_jr</t>
   </si>
   <si>
-    <t>7 ч. 14 мин. 8 сек.</t>
+    <t>7 ч. 14 мин. 08 сек.</t>
   </si>
   <si>
     <t>233</t>
@@ -2075,7 +2075,7 @@
     <t>Mask2017</t>
   </si>
   <si>
-    <t>15 ч. 48 мин. 4 сек.</t>
+    <t>15 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>234</t>
@@ -2084,7 +2084,7 @@
     <t>akinojes</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 40 сек.</t>
+    <t>11 ч. 09 мин. 40 сек.</t>
   </si>
   <si>
     <t>235</t>
@@ -2093,7 +2093,7 @@
     <t>Convicted</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 11 сек.</t>
+    <t>7 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>236</t>
@@ -2102,7 +2102,7 @@
     <t>Алека</t>
   </si>
   <si>
-    <t>17 ч. 35 мин. 4 сек.</t>
+    <t>17 ч. 35 мин. 04 сек.</t>
   </si>
   <si>
     <t>237–238</t>
@@ -2153,7 +2153,7 @@
     <t>Lexanni</t>
   </si>
   <si>
-    <t>12 ч. 43 мин. 7 сек.</t>
+    <t>12 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>243–244</t>
@@ -2168,7 +2168,7 @@
     <t>Лень</t>
   </si>
   <si>
-    <t>7 ч. 49 мин. 2 сек.</t>
+    <t>7 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>245</t>
@@ -2186,7 +2186,7 @@
     <t>Чумаходка</t>
   </si>
   <si>
-    <t>14 ч. 9 мин. 36 сек.</t>
+    <t>14 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>247</t>
@@ -2204,7 +2204,7 @@
     <t>su-35</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 2 сек.</t>
+    <t>11 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>glebmikh</t>
@@ -2219,7 +2219,7 @@
     <t>zvo4</t>
   </si>
   <si>
-    <t>14 ч. 34 мин. 0 сек.</t>
+    <t>14 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>251</t>
@@ -2228,7 +2228,7 @@
     <t>SimFirso</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 13 сек.</t>
+    <t>19 ч. 03 мин. 13 сек.</t>
   </si>
   <si>
     <t>252</t>
@@ -2246,7 +2246,7 @@
     <t>SEFER</t>
   </si>
   <si>
-    <t>11 ч. 19 мин. 2 сек.</t>
+    <t>11 ч. 19 мин. 02 сек.</t>
   </si>
   <si>
     <t>254</t>
@@ -2279,7 +2279,7 @@
     <t>hrenovaya_klava</t>
   </si>
   <si>
-    <t>10 ч. 52 мин. 8 сек.</t>
+    <t>10 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>258</t>
@@ -2288,7 +2288,7 @@
     <t>BI-FI-Car</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 47 сек.</t>
+    <t>12 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>259</t>
@@ -2297,7 +2297,7 @@
     <t>mazirat</t>
   </si>
   <si>
-    <t>21 ч. 7 мин. 0 сек.</t>
+    <t>21 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>260–262</t>
@@ -2318,7 +2318,7 @@
     <t>Серж_Благ</t>
   </si>
   <si>
-    <t>12 ч. 43 мин. 5 сек.</t>
+    <t>12 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>263</t>
@@ -2336,7 +2336,7 @@
     <t>Flydee</t>
   </si>
   <si>
-    <t>9 ч. 27 мин. 0 сек.</t>
+    <t>9 ч. 27 мин. 00 сек.</t>
   </si>
   <si>
     <t>265</t>
@@ -2414,7 +2414,7 @@
     <t>Zettabyte</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 27 сек.</t>
+    <t>12 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>274–275</t>
@@ -2429,7 +2429,7 @@
     <t>Александр88</t>
   </si>
   <si>
-    <t>7 ч. 48 мин. 1 сек.</t>
+    <t>7 ч. 48 мин. 01 сек.</t>
   </si>
   <si>
     <t>276</t>
@@ -2471,7 +2471,7 @@
     <t>ToNick</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 12 сек.</t>
+    <t>6 ч. 06 мин. 12 сек.</t>
   </si>
   <si>
     <t>281</t>
@@ -2537,7 +2537,7 @@
     <t>CBETJIAHA</t>
   </si>
   <si>
-    <t>10 ч. 37 мин. 8 сек.</t>
+    <t>10 ч. 37 мин. 08 сек.</t>
   </si>
   <si>
     <t>289</t>
@@ -2564,7 +2564,7 @@
     <t>schamuil</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 42 сек.</t>
+    <t>12 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>max0pancho</t>
@@ -2579,7 +2579,7 @@
     <t>Alkaline</t>
   </si>
   <si>
-    <t>7 ч. 44 мин. 3 сек.</t>
+    <t>7 ч. 44 мин. 03 сек.</t>
   </si>
   <si>
     <t>294</t>
@@ -2588,7 +2588,7 @@
     <t>denisov7</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 3 сек.</t>
+    <t>9 ч. 08 мин. 03 сек.</t>
   </si>
   <si>
     <t>295</t>
@@ -2615,7 +2615,7 @@
     <t>bkozhaev</t>
   </si>
   <si>
-    <t>9 ч. 21 мин. 8 сек.</t>
+    <t>9 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>298–299</t>
@@ -2657,7 +2657,7 @@
     <t>volk70</t>
   </si>
   <si>
-    <t>15 ч. 13 мин. 9 сек.</t>
+    <t>15 ч. 13 мин. 09 сек.</t>
   </si>
   <si>
     <t>niagara155</t>
@@ -2711,7 +2711,7 @@
     <t>Hold_Tight</t>
   </si>
   <si>
-    <t>7 ч. 24 мин. 3 сек.</t>
+    <t>7 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>310–311</t>
@@ -2732,7 +2732,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>7 ч. 35 мин. 5 сек.</t>
+    <t>7 ч. 35 мин. 05 сек.</t>
   </si>
   <si>
     <t>Порядок</t>
@@ -2789,7 +2789,7 @@
     <t>snov</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 3 сек.</t>
+    <t>9 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>320</t>
@@ -2807,7 +2807,7 @@
     <t>Mediator</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 43 сек.</t>
+    <t>9 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>322</t>
@@ -2858,7 +2858,7 @@
     <t>Adjery</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 29 сек.</t>
+    <t>7 ч. 06 мин. 29 сек.</t>
   </si>
   <si>
     <t>328</t>
@@ -2867,7 +2867,7 @@
     <t>takobus</t>
   </si>
   <si>
-    <t>7 ч. 14 мин. 4 сек.</t>
+    <t>7 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>329</t>
@@ -2876,7 +2876,7 @@
     <t>winix</t>
   </si>
   <si>
-    <t>7 ч. 29 мин. 5 сек.</t>
+    <t>7 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>330</t>
@@ -2900,7 +2900,7 @@
     <t>Zema11</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 18 сек.</t>
+    <t>13 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>333</t>
@@ -2918,7 +2918,7 @@
     <t>dsdt</t>
   </si>
   <si>
-    <t>6 ч. 37 мин. 3 сек.</t>
+    <t>6 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>335–336</t>
@@ -2927,13 +2927,13 @@
     <t>persona48</t>
   </si>
   <si>
-    <t>19 ч. 4 мин. 27 сек.</t>
+    <t>19 ч. 04 мин. 27 сек.</t>
   </si>
   <si>
     <t>vvoland</t>
   </si>
   <si>
-    <t>8 ч. 38 мин. 4 сек.</t>
+    <t>8 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>337–339</t>
@@ -2999,7 +2999,7 @@
     <t>GlaVV</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 0 сек.</t>
+    <t>12 ч. 04 мин. 00 сек.</t>
   </si>
   <si>
     <t>346</t>
@@ -3026,7 +3026,7 @@
     <t>Yuron_19</t>
   </si>
   <si>
-    <t>12 ч. 0 мин. 1 сек.</t>
+    <t>12 ч. 00 мин. 01 сек.</t>
   </si>
   <si>
     <t>вовик58</t>
@@ -3053,7 +3053,7 @@
     <t>zevsman</t>
   </si>
   <si>
-    <t>7 ч. 37 мин. 4 сек.</t>
+    <t>7 ч. 37 мин. 04 сек.</t>
   </si>
   <si>
     <t>353</t>
@@ -3062,7 +3062,7 @@
     <t>Тенерифа</t>
   </si>
   <si>
-    <t>15 ч. 6 мин. 34 сек.</t>
+    <t>15 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>354</t>
@@ -3086,7 +3086,7 @@
     <t>Garmonica</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 30 сек.</t>
+    <t>6 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>357</t>
@@ -3095,7 +3095,7 @@
     <t>die-hard</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 31 сек.</t>
+    <t>7 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>358</t>
@@ -3161,7 +3161,7 @@
     <t>ЕНИ</t>
   </si>
   <si>
-    <t>9 ч. 24 мин. 2 сек.</t>
+    <t>9 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>366–368</t>
@@ -3242,13 +3242,13 @@
     <t>вазовик</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 59 сек.</t>
+    <t>9 ч. 07 мин. 59 сек.</t>
   </si>
   <si>
     <t>awefork</t>
   </si>
   <si>
-    <t>6 ч. 34 мин. 3 сек.</t>
+    <t>6 ч. 34 мин. 03 сек.</t>
   </si>
   <si>
     <t>378–380</t>
@@ -3314,7 +3314,7 @@
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 28 сек.</t>
+    <t>5 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>387–388</t>
@@ -3362,7 +3362,7 @@
     <t>ivan_grishov96</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 26 сек.</t>
+    <t>9 ч. 08 мин. 26 сек.</t>
   </si>
   <si>
     <t>evgen65</t>
@@ -3383,7 +3383,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 26 сек.</t>
+    <t>6 ч. 05 мин. 26 сек.</t>
   </si>
   <si>
     <t>396</t>
@@ -3437,7 +3437,7 @@
     <t>Лии</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 19 сек.</t>
+    <t>6 ч. 09 мин. 19 сек.</t>
   </si>
   <si>
     <t>fajek</t>
@@ -3482,7 +3482,7 @@
     <t>Alex_fey</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 50 сек.</t>
+    <t>8 ч. 05 мин. 50 сек.</t>
   </si>
   <si>
     <t>408</t>
@@ -3491,7 +3491,7 @@
     <t>a_mikhaylov</t>
   </si>
   <si>
-    <t>5 ч. 15 мин. 5 сек.</t>
+    <t>5 ч. 15 мин. 05 сек.</t>
   </si>
   <si>
     <t>409</t>
@@ -3569,7 +3569,7 @@
     <t>spoNS</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 11 сек.</t>
+    <t>7 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>418</t>
@@ -3602,7 +3602,7 @@
     <t>nick1m</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 30 сек.</t>
+    <t>11 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>IVIVI</t>
@@ -3644,7 +3644,7 @@
     <t>ASN</t>
   </si>
   <si>
-    <t>15 ч. 5 мин. 24 сек.</t>
+    <t>15 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>Leshiy239</t>
@@ -3668,7 +3668,7 @@
     <t>vova555</t>
   </si>
   <si>
-    <t>17 ч. 5 мин. 7 сек.</t>
+    <t>17 ч. 05 мин. 07 сек.</t>
   </si>
   <si>
     <t>Doxly</t>
@@ -3689,7 +3689,7 @@
     <t>Glage</t>
   </si>
   <si>
-    <t>10 ч. 51 мин. 4 сек.</t>
+    <t>10 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>433–434</t>
@@ -3767,7 +3767,7 @@
     <t>supereko</t>
   </si>
   <si>
-    <t>15 ч. 30 мин. 4 сек.</t>
+    <t>15 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>442</t>
@@ -3800,7 +3800,7 @@
     <t>DiMan84</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 23 сек.</t>
+    <t>9 ч. 06 мин. 23 сек.</t>
   </si>
   <si>
     <t>iforrest</t>
@@ -3815,7 +3815,7 @@
     <t>19550801</t>
   </si>
   <si>
-    <t>11 ч. 51 мин. 8 сек.</t>
+    <t>11 ч. 51 мин. 08 сек.</t>
   </si>
   <si>
     <t>448</t>
@@ -3824,7 +3824,7 @@
     <t>spartakne</t>
   </si>
   <si>
-    <t>11 ч. 0 мин. 37 сек.</t>
+    <t>11 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>449–451</t>
@@ -3854,7 +3854,7 @@
     <t>Natalochka</t>
   </si>
   <si>
-    <t>5 ч. 45 мин. 7 сек.</t>
+    <t>5 ч. 45 мин. 07 сек.</t>
   </si>
   <si>
     <t>453</t>
@@ -3872,7 +3872,7 @@
     <t>клавоинка</t>
   </si>
   <si>
-    <t>7 ч. 36 мин. 3 сек.</t>
+    <t>7 ч. 36 мин. 03 сек.</t>
   </si>
   <si>
     <t>455</t>
@@ -3881,7 +3881,7 @@
     <t>Леоня</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 57 сек.</t>
+    <t>6 ч. 06 мин. 57 сек.</t>
   </si>
   <si>
     <t>456–457</t>
@@ -3962,7 +3962,7 @@
     <t>El_Mago</t>
   </si>
   <si>
-    <t>6 ч. 18 мин. 4 сек.</t>
+    <t>6 ч. 18 мин. 04 сек.</t>
   </si>
   <si>
     <t>466–467</t>
@@ -3986,7 +3986,7 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 55 сек.</t>
+    <t>4 ч. 07 мин. 55 сек.</t>
   </si>
   <si>
     <t>469</t>
@@ -3995,7 +3995,7 @@
     <t>nikioa</t>
   </si>
   <si>
-    <t>7 ч. 43 мин. 4 сек.</t>
+    <t>7 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>470</t>
@@ -4004,7 +4004,7 @@
     <t>wizardwizard</t>
   </si>
   <si>
-    <t>14 ч. 0 мин. 5 сек.</t>
+    <t>14 ч. 00 мин. 05 сек.</t>
   </si>
   <si>
     <t>471</t>
@@ -4013,7 +4013,7 @@
     <t>Кибертаксист</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 0 сек.</t>
+    <t>4 ч. 59 мин. 00 сек.</t>
   </si>
   <si>
     <t>472</t>
@@ -4022,7 +4022,7 @@
     <t>BIKE-off</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 9 сек.</t>
+    <t>7 ч. 00 мин. 09 сек.</t>
   </si>
   <si>
     <t>473</t>
@@ -4112,7 +4112,7 @@
     <t>Ежики</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 45 сек.</t>
+    <t>11 ч. 06 мин. 45 сек.</t>
   </si>
   <si>
     <t>485</t>
@@ -4145,7 +4145,7 @@
     <t>Flam91</t>
   </si>
   <si>
-    <t>6 ч. 47 мин. 5 сек.</t>
+    <t>6 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>cupofinsane</t>
@@ -4181,7 +4181,7 @@
     <t>caym</t>
   </si>
   <si>
-    <t>6 ч. 35 мин. 1 сек.</t>
+    <t>6 ч. 35 мин. 01 сек.</t>
   </si>
   <si>
     <t>BAHO_Sh</t>
@@ -4196,7 +4196,7 @@
     <t>atikin88</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 2 сек.</t>
+    <t>10 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>Oxanette</t>
@@ -4250,7 +4250,7 @@
     <t>Anatoly79</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 18 сек.</t>
+    <t>12 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>503–506</t>
@@ -4286,7 +4286,7 @@
     <t>Шадрин</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 46 сек.</t>
+    <t>7 ч. 02 мин. 46 сек.</t>
   </si>
   <si>
     <t>508–510</t>
@@ -4295,7 +4295,7 @@
     <t>Воронин</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 9 сек.</t>
+    <t>9 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>Slavik89</t>
@@ -4307,7 +4307,7 @@
     <t>Feliks_Smetana</t>
   </si>
   <si>
-    <t>5 ч. 20 мин. 3 сек.</t>
+    <t>5 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>511–512</t>
@@ -4331,7 +4331,7 @@
     <t>koljan359</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 17 сек.</t>
+    <t>6 ч. 09 мин. 17 сек.</t>
   </si>
   <si>
     <t>_NoMaD_</t>
@@ -4358,7 +4358,7 @@
     <t>Лелюгри</t>
   </si>
   <si>
-    <t>8 ч. 21 мин. 6 сек.</t>
+    <t>8 ч. 21 мин. 06 сек.</t>
   </si>
   <si>
     <t>vorst05</t>
@@ -4421,7 +4421,7 @@
     <t>Floopyy</t>
   </si>
   <si>
-    <t>5 ч. 22 мин. 1 сек.</t>
+    <t>5 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>526–528</t>
@@ -4442,7 +4442,7 @@
     <t>Ирдэнс</t>
   </si>
   <si>
-    <t>5 ч. 44 мин. 4 сек.</t>
+    <t>5 ч. 44 мин. 04 сек.</t>
   </si>
   <si>
     <t>529</t>
@@ -4469,7 +4469,7 @@
     <t>kibico</t>
   </si>
   <si>
-    <t>5 ч. 39 мин. 4 сек.</t>
+    <t>5 ч. 39 мин. 04 сек.</t>
   </si>
   <si>
     <t>anahata</t>
@@ -4562,7 +4562,7 @@
     <t>Vadim30</t>
   </si>
   <si>
-    <t>8 ч. 56 мин. 2 сек.</t>
+    <t>8 ч. 56 мин. 02 сек.</t>
   </si>
   <si>
     <t>544</t>
@@ -4601,7 +4601,7 @@
     <t>Tata3808</t>
   </si>
   <si>
-    <t>7 ч. 13 мин. 1 сек.</t>
+    <t>7 ч. 13 мин. 01 сек.</t>
   </si>
   <si>
     <t>sam39</t>
@@ -4628,7 +4628,7 @@
     <t>Alexar</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 26 сек.</t>
+    <t>6 ч. 06 мин. 26 сек.</t>
   </si>
   <si>
     <t>553–558</t>
@@ -4637,7 +4637,7 @@
     <t>serg3295</t>
   </si>
   <si>
-    <t>7 ч. 20 мин. 9 сек.</t>
+    <t>7 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>SlavaSlava</t>
@@ -4649,7 +4649,7 @@
     <t>proximo39</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 10 сек.</t>
+    <t>4 ч. 00 мин. 10 сек.</t>
   </si>
   <si>
     <t>gennadiyb</t>
@@ -4676,7 +4676,7 @@
     <t>salser1982</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 38 сек.</t>
+    <t>4 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>560–562</t>
@@ -4697,7 +4697,7 @@
     <t>helgooooooooo_O</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 47 сек.</t>
+    <t>7 ч. 02 мин. 47 сек.</t>
   </si>
   <si>
     <t>563–564</t>
@@ -4712,7 +4712,7 @@
     <t>kpavel1990</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 3 сек.</t>
+    <t>7 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>565</t>
@@ -4763,7 +4763,7 @@
     <t>Spetznaz</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 53 сек.</t>
+    <t>6 ч. 02 мин. 53 сек.</t>
   </si>
   <si>
     <t>572–573</t>
@@ -4811,7 +4811,7 @@
     <t>kubikrubika</t>
   </si>
   <si>
-    <t>5 ч. 10 мин. 6 сек.</t>
+    <t>5 ч. 10 мин. 06 сек.</t>
   </si>
   <si>
     <t>smol67</t>
@@ -4835,7 +4835,7 @@
     <t>ВолкТряпошный</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 49 сек.</t>
+    <t>7 ч. 04 мин. 49 сек.</t>
   </si>
   <si>
     <t>582–583</t>
@@ -4850,7 +4850,7 @@
     <t>lexa007</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 1 сек.</t>
+    <t>5 ч. 03 мин. 01 сек.</t>
   </si>
   <si>
     <t>584–588</t>
@@ -4859,7 +4859,7 @@
     <t>Рустамко</t>
   </si>
   <si>
-    <t>4 ч. 55 мин. 1 сек.</t>
+    <t>4 ч. 55 мин. 01 сек.</t>
   </si>
   <si>
     <t>VSW</t>
@@ -4871,7 +4871,7 @@
     <t>ShdwWrrr</t>
   </si>
   <si>
-    <t>6 ч. 32 мин. 2 сек.</t>
+    <t>6 ч. 32 мин. 02 сек.</t>
   </si>
   <si>
     <t>KitsuneSpirit</t>
@@ -4907,7 +4907,7 @@
     <t>fominov</t>
   </si>
   <si>
-    <t>6 ч. 58 мин. 8 сек.</t>
+    <t>6 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>afilatov1989</t>
@@ -4922,7 +4922,7 @@
     <t>LoremIspum</t>
   </si>
   <si>
-    <t>12 ч. 42 мин. 4 сек.</t>
+    <t>12 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>qsort</t>
@@ -4949,7 +4949,7 @@
     <t>Cerry-Ledy</t>
   </si>
   <si>
-    <t>9 ч. 10 мин. 5 сек.</t>
+    <t>9 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>598–599</t>
@@ -4973,13 +4973,13 @@
     <t>NineFingers</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 25 сек.</t>
+    <t>5 ч. 06 мин. 25 сек.</t>
   </si>
   <si>
     <t>Miss_Think</t>
   </si>
   <si>
-    <t>5 ч. 10 мин. 7 сек.</t>
+    <t>5 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>Gbit</t>
@@ -5003,7 +5003,7 @@
     <t>Vi2GaN</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 45 сек.</t>
+    <t>7 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>605</t>
@@ -5030,7 +5030,7 @@
     <t>Шмакодявка</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 27 сек.</t>
+    <t>10 ч. 01 мин. 27 сек.</t>
   </si>
   <si>
     <t>608–611</t>
@@ -5063,7 +5063,7 @@
     <t>ail</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 26 сек.</t>
+    <t>4 ч. 05 мин. 26 сек.</t>
   </si>
   <si>
     <t>613</t>
@@ -5156,7 +5156,7 @@
     <t>evgenich1992</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 59 сек.</t>
+    <t>5 ч. 08 мин. 59 сек.</t>
   </si>
   <si>
     <t>625–628</t>
@@ -5183,7 +5183,7 @@
     <t>ls_600_hl</t>
   </si>
   <si>
-    <t>5 ч. 46 мин. 9 сек.</t>
+    <t>5 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>629–634</t>
@@ -5204,7 +5204,7 @@
     <t>fedyagor</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 5 сек.</t>
+    <t>4 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>Pyromaniac</t>
@@ -5222,7 +5222,7 @@
     <t>IamCrazy</t>
   </si>
   <si>
-    <t>4 ч. 46 мин. 4 сек.</t>
+    <t>4 ч. 46 мин. 04 сек.</t>
   </si>
   <si>
     <t>635–638</t>
@@ -5231,7 +5231,7 @@
     <t>MoskovKazanova</t>
   </si>
   <si>
-    <t>7 ч. 43 мин. 1 сек.</t>
+    <t>7 ч. 43 мин. 01 сек.</t>
   </si>
   <si>
     <t>expollux</t>
@@ -5243,13 +5243,13 @@
     <t>draaagon</t>
   </si>
   <si>
-    <t>3 ч. 43 мин. 7 сек.</t>
+    <t>3 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>agor</t>
   </si>
   <si>
-    <t>5 ч. 15 мин. 0 сек.</t>
+    <t>5 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>639–640</t>
@@ -5258,13 +5258,13 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>6 ч. 20 мин. 5 сек.</t>
+    <t>6 ч. 20 мин. 05 сек.</t>
   </si>
   <si>
     <t>virones</t>
   </si>
   <si>
-    <t>4 ч. 42 мин. 8 сек.</t>
+    <t>4 ч. 42 мин. 08 сек.</t>
   </si>
   <si>
     <t>641–642</t>
@@ -5300,7 +5300,7 @@
     <t>bolbol</t>
   </si>
   <si>
-    <t>4 ч. 54 мин. 6 сек.</t>
+    <t>4 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>neophyte</t>
@@ -5312,7 +5312,7 @@
     <t>ay52_bio</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 29 сек.</t>
+    <t>4 ч. 09 мин. 29 сек.</t>
   </si>
   <si>
     <t>Muwka_C_CeBePa</t>
@@ -5333,7 +5333,7 @@
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 4 сек.</t>
+    <t>5 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>coolgrave</t>
@@ -5357,7 +5357,7 @@
     <t>ОлегК</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 38 сек.</t>
+    <t>6 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>lehf</t>
@@ -5396,13 +5396,13 @@
     <t>gektor768</t>
   </si>
   <si>
-    <t>6 ч. 34 мин. 9 сек.</t>
+    <t>6 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>фонГрамофон</t>
   </si>
   <si>
-    <t>6 ч. 40 мин. 3 сек.</t>
+    <t>6 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>Tahion</t>
@@ -5429,7 +5429,7 @@
     <t>Днище_грЕбаное</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 58 сек.</t>
+    <t>4 ч. 08 мин. 58 сек.</t>
   </si>
   <si>
     <t>666</t>
@@ -5447,7 +5447,7 @@
     <t>nonstop_</t>
   </si>
   <si>
-    <t>2 ч. 59 мин. 9 сек.</t>
+    <t>2 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>668–670</t>
@@ -5456,7 +5456,7 @@
     <t>IgorGrin</t>
   </si>
   <si>
-    <t>9 ч. 32 мин. 3 сек.</t>
+    <t>9 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>LeXO</t>
@@ -5465,7 +5465,7 @@
     <t>ZVEZDNAYA</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 50 сек.</t>
+    <t>6 ч. 00 мин. 50 сек.</t>
   </si>
   <si>
     <t>671–672</t>
@@ -5510,7 +5510,7 @@
     <t>Plectrum</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 51 сек.</t>
+    <t>5 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>677–680</t>
@@ -5537,7 +5537,7 @@
     <t>ПЕРЖО</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 12 сек.</t>
+    <t>3 ч. 08 мин. 12 сек.</t>
   </si>
   <si>
     <t>681–682</t>
@@ -5552,7 +5552,7 @@
     <t>kosal</t>
   </si>
   <si>
-    <t>11 ч. 32 мин. 9 сек.</t>
+    <t>11 ч. 32 мин. 09 сек.</t>
   </si>
   <si>
     <t>683</t>
@@ -5561,7 +5561,7 @@
     <t>dslf</t>
   </si>
   <si>
-    <t>5 ч. 34 мин. 7 сек.</t>
+    <t>5 ч. 34 мин. 07 сек.</t>
   </si>
   <si>
     <t>684–685</t>
@@ -5570,13 +5570,13 @@
     <t>Elizar</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 16 сек.</t>
+    <t>4 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>Sonick071</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 27 сек.</t>
+    <t>4 ч. 04 мин. 27 сек.</t>
   </si>
   <si>
     <t>686–687</t>
@@ -5609,7 +5609,7 @@
     <t>HeyJoe</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 13 сек.</t>
+    <t>3 ч. 05 мин. 13 сек.</t>
   </si>
   <si>
     <t>690–691</t>
@@ -5633,7 +5633,7 @@
     <t>yaguarvl</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 1 сек.</t>
+    <t>6 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>Lucky_You</t>
@@ -5714,13 +5714,13 @@
     <t>Iuhenio</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 49 сек.</t>
+    <t>5 ч. 04 мин. 49 сек.</t>
   </si>
   <si>
     <t>Воланд</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 55 сек.</t>
+    <t>3 ч. 02 мин. 55 сек.</t>
   </si>
   <si>
     <t>705–707</t>
@@ -5774,13 +5774,13 @@
     <t>platonegorov</t>
   </si>
   <si>
-    <t>6 ч. 47 мин. 9 сек.</t>
+    <t>6 ч. 47 мин. 09 сек.</t>
   </si>
   <si>
     <t>Flerik</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 1 сек.</t>
+    <t>2 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>713–715</t>
@@ -5801,7 +5801,7 @@
     <t>flyer_diktor</t>
   </si>
   <si>
-    <t>5 ч. 58 мин. 4 сек.</t>
+    <t>5 ч. 58 мин. 04 сек.</t>
   </si>
   <si>
     <t>716–719</t>
@@ -5810,7 +5810,7 @@
     <t>Grarad</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 33 сек.</t>
+    <t>8 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>Sudia2009</t>
@@ -5822,7 +5822,7 @@
     <t>AcidMan</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 20 сек.</t>
+    <t>3 ч. 07 мин. 20 сек.</t>
   </si>
   <si>
     <t>SHTIRLITZ</t>
@@ -5858,7 +5858,7 @@
     <t>serge-kruf</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 9 сек.</t>
+    <t>3 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>724–725</t>
@@ -5882,7 +5882,7 @@
     <t>FLb</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 14 сек.</t>
+    <t>4 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>Girevik</t>
@@ -5900,7 +5900,7 @@
     <t>Egen</t>
   </si>
   <si>
-    <t>4 ч. 36 мин. 1 сек.</t>
+    <t>4 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>velsher123</t>
@@ -5945,7 +5945,7 @@
     <t>__мутя__</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 43 сек.</t>
+    <t>5 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>Vet0chka</t>
@@ -5960,25 +5960,25 @@
     <t>pashkinson</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 20 сек.</t>
+    <t>3 ч. 08 мин. 20 сек.</t>
   </si>
   <si>
     <t>Tavduk</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 6 сек.</t>
+    <t>4 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>romashe</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 11 сек.</t>
+    <t>4 ч. 06 мин. 11 сек.</t>
   </si>
   <si>
     <t>Fudo</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 0 сек.</t>
+    <t>2 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>sergeiss_nn</t>
@@ -5990,7 +5990,7 @@
     <t>ass1982</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 35 сек.</t>
+    <t>4 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>743</t>
@@ -6071,7 +6071,7 @@
     <t>Fermmer</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 4 сек.</t>
+    <t>4 ч. 08 мин. 04 сек.</t>
   </si>
   <si>
     <t>Passer</t>
@@ -6086,7 +6086,7 @@
     <t>Maire</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 21 сек.</t>
+    <t>3 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>Дирижабль</t>
@@ -6116,7 +6116,7 @@
     <t>ajrcbp</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 8 сек.</t>
+    <t>3 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>761</t>
@@ -6134,13 +6134,13 @@
     <t>Feine</t>
   </si>
   <si>
-    <t>3 ч. 49 мин. 3 сек.</t>
+    <t>3 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>Квак</t>
   </si>
   <si>
-    <t>3 ч. 13 мин. 0 сек.</t>
+    <t>3 ч. 13 мин. 00 сек.</t>
   </si>
   <si>
     <t>764</t>
@@ -6149,7 +6149,7 @@
     <t>Spaider</t>
   </si>
   <si>
-    <t>4 ч. 13 мин. 7 сек.</t>
+    <t>4 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>765–767</t>
@@ -6194,7 +6194,7 @@
     <t>velocipede</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 1 сек.</t>
+    <t>3 ч. 01 мин. 01 сек.</t>
   </si>
   <si>
     <t>oyasumi</t>
@@ -6206,7 +6206,7 @@
     <t>Uraniadz</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 56 сек.</t>
+    <t>3 ч. 07 мин. 56 сек.</t>
   </si>
   <si>
     <t>773–776</t>
@@ -6233,7 +6233,7 @@
     <t>Ishka</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 24 сек.</t>
+    <t>4 ч. 07 мин. 24 сек.</t>
   </si>
   <si>
     <t>777–780</t>
@@ -6248,7 +6248,7 @@
     <t>совет-солдат</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 40 сек.</t>
+    <t>4 ч. 01 мин. 40 сек.</t>
   </si>
   <si>
     <t>DVRazor</t>
@@ -6260,7 +6260,7 @@
     <t>Очепяткин</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 20 сек.</t>
+    <t>4 ч. 08 мин. 20 сек.</t>
   </si>
   <si>
     <t>781</t>
@@ -6278,7 +6278,7 @@
     <t>Prana</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 17 сек.</t>
+    <t>5 ч. 01 мин. 17 сек.</t>
   </si>
   <si>
     <t>bez_tormozov</t>
@@ -6305,7 +6305,7 @@
     <t>nata-natusechka</t>
   </si>
   <si>
-    <t>4 ч. 38 мин. 8 сек.</t>
+    <t>4 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>glama</t>
@@ -6332,7 +6332,7 @@
     <t>_Akamoe_</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 7 сек.</t>
+    <t>3 ч. 08 мин. 07 сек.</t>
   </si>
   <si>
     <t>ckandy</t>
@@ -6359,13 +6359,13 @@
     <t>fobos87</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 25 сек.</t>
+    <t>8 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>Vadimnecha</t>
   </si>
   <si>
-    <t>5 ч. 22 мин. 7 сек.</t>
+    <t>5 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>796–797</t>
@@ -6431,7 +6431,7 @@
     <t>SpazZm</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 0 сек.</t>
+    <t>3 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>805–806</t>
@@ -6440,7 +6440,7 @@
     <t>sano7161</t>
   </si>
   <si>
-    <t>7 ч. 13 мин. 2 сек.</t>
+    <t>7 ч. 13 мин. 02 сек.</t>
   </si>
   <si>
     <t>Эромдомдом</t>
@@ -6461,7 +6461,7 @@
     <t>OlegaBaranov</t>
   </si>
   <si>
-    <t>5 ч. 37 мин. 3 сек.</t>
+    <t>5 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>809</t>
@@ -6500,7 +6500,7 @@
     <t>Euki</t>
   </si>
   <si>
-    <t>3 ч. 41 мин. 7 сек.</t>
+    <t>3 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>fuzeg</t>
@@ -6539,13 +6539,13 @@
     <t>Darwinian</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 39 сек.</t>
+    <t>4 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>LADA220876</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 29 сек.</t>
+    <t>6 ч. 00 мин. 29 сек.</t>
   </si>
   <si>
     <t>Klavius</t>
@@ -6572,7 +6572,7 @@
     <t>Boost</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 1 сек.</t>
+    <t>2 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>Nadiyscha</t>
@@ -6593,7 +6593,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 24 сек.</t>
+    <t>2 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>marinka19</t>
@@ -6647,7 +6647,7 @@
     <t>aseran</t>
   </si>
   <si>
-    <t>7 ч. 28 мин. 8 сек.</t>
+    <t>7 ч. 28 мин. 08 сек.</t>
   </si>
   <si>
     <t>836–839</t>
@@ -6668,7 +6668,7 @@
     <t>DLemma</t>
   </si>
   <si>
-    <t>4 ч. 51 мин. 0 сек.</t>
+    <t>4 ч. 51 мин. 00 сек.</t>
   </si>
   <si>
     <t>Ш0ТАМ</t>
@@ -6683,7 +6683,7 @@
     <t>Тинейджер2004</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 29 сек.</t>
+    <t>3 ч. 09 мин. 29 сек.</t>
   </si>
   <si>
     <t>aGm</t>
@@ -6692,7 +6692,7 @@
     <t>buerak</t>
   </si>
   <si>
-    <t>2 ч. 57 мин. 7 сек.</t>
+    <t>2 ч. 57 мин. 07 сек.</t>
   </si>
   <si>
     <t>sbox</t>
@@ -6719,13 +6719,13 @@
     <t>meze</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 10 сек.</t>
+    <t>3 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>I-van</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 36 сек.</t>
+    <t>4 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>848–850</t>
@@ -6767,7 +6767,7 @@
     <t>RebeldeWay</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 52 сек.</t>
+    <t>3 ч. 06 мин. 52 сек.</t>
   </si>
   <si>
     <t>854–855</t>
@@ -6797,7 +6797,7 @@
     <t>woffkass</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 37 сек.</t>
+    <t>6 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>СереНат</t>
@@ -6830,13 +6830,13 @@
     <t>ant1k</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 35 сек.</t>
+    <t>2 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>VanDyk</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 50 сек.</t>
+    <t>3 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>ЦАРЬ</t>
@@ -6884,13 +6884,13 @@
     <t>zald</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 38 сек.</t>
+    <t>9 ч. 02 мин. 38 сек.</t>
   </si>
   <si>
     <t>Thtas</t>
   </si>
   <si>
-    <t>2 ч. 41 мин. 4 сек.</t>
+    <t>2 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>Alexismoon</t>
@@ -6911,13 +6911,13 @@
     <t>n1Riper</t>
   </si>
   <si>
-    <t>2 ч. 32 мин. 5 сек.</t>
+    <t>2 ч. 32 мин. 05 сек.</t>
   </si>
   <si>
     <t>Skiper</t>
   </si>
   <si>
-    <t>3 ч. 26 мин. 0 сек.</t>
+    <t>3 ч. 26 мин. 00 сек.</t>
   </si>
   <si>
     <t>salat79</t>
@@ -6932,19 +6932,19 @@
     <t>cal-lek</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 39 сек.</t>
+    <t>3 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>daktule</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 9 сек.</t>
+    <t>4 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>qw10fing</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 9 сек.</t>
+    <t>2 ч. 40 мин. 09 сек.</t>
   </si>
   <si>
     <t>nagi-sama</t>
@@ -6974,13 +6974,13 @@
     <t>lewchel</t>
   </si>
   <si>
-    <t>6 ч. 16 мин. 0 сек.</t>
+    <t>6 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>Oknevor</t>
   </si>
   <si>
-    <t>2 ч. 41 мин. 7 сек.</t>
+    <t>2 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>Fred0</t>
@@ -7028,13 +7028,13 @@
     <t>ГоуВин</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 29 сек.</t>
+    <t>5 ч. 05 мин. 29 сек.</t>
   </si>
   <si>
     <t>madinko</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 13 сек.</t>
+    <t>2 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>894–895</t>
@@ -7043,7 +7043,7 @@
     <t>andrux2020</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 39 сек.</t>
+    <t>12 ч. 06 мин. 39 сек.</t>
   </si>
   <si>
     <t>Horcrux</t>
@@ -7058,7 +7058,7 @@
     <t>V_Alexey</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 12 сек.</t>
+    <t>3 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>gluckss2</t>
@@ -7070,7 +7070,7 @@
     <t>Analgin7</t>
   </si>
   <si>
-    <t>2 ч. 53 мин. 0 сек.</t>
+    <t>2 ч. 53 мин. 00 сек.</t>
   </si>
   <si>
     <t>hrum-hrum</t>
@@ -7103,7 +7103,7 @@
     <t>Tedman</t>
   </si>
   <si>
-    <t>4 ч. 39 мин. 1 сек.</t>
+    <t>4 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>Pantis</t>
@@ -7124,7 +7124,7 @@
     <t>tbombadil</t>
   </si>
   <si>
-    <t>4 ч. 44 мин. 8 сек.</t>
+    <t>4 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>Жижикова</t>
@@ -7145,7 +7145,7 @@
     <t>Aksi25</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 52 сек.</t>
+    <t>11 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>HaneDzin</t>
@@ -7157,7 +7157,7 @@
     <t>Gen1us</t>
   </si>
   <si>
-    <t>4 ч. 23 мин. 5 сек.</t>
+    <t>4 ч. 23 мин. 05 сек.</t>
   </si>
   <si>
     <t>1slmmm</t>
@@ -7250,7 +7250,7 @@
     <t>PushTheButton</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 25 сек.</t>
+    <t>3 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>imd54</t>
@@ -7268,13 +7268,13 @@
     <t>Антоха61</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 30 сек.</t>
+    <t>8 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>Pill_Kates</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 7 сек.</t>
+    <t>3 ч. 34 мин. 07 сек.</t>
   </si>
   <si>
     <t>930–933</t>
@@ -7283,7 +7283,7 @@
     <t>oktkos</t>
   </si>
   <si>
-    <t>4 ч. 49 мин. 7 сек.</t>
+    <t>4 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>Deleted</t>
@@ -7295,7 +7295,7 @@
     <t>Milker</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 45 сек.</t>
+    <t>3 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>fianit</t>
@@ -7325,7 +7325,7 @@
     <t>Danwer</t>
   </si>
   <si>
-    <t>3 ч. 59 мин. 2 сек.</t>
+    <t>3 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>logickiller</t>
@@ -7448,13 +7448,13 @@
     <t>Gal04ka</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 7 сек.</t>
+    <t>2 ч. 35 мин. 07 сек.</t>
   </si>
   <si>
     <t>Ulin</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 51 сек.</t>
+    <t>3 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>Deni4</t>
@@ -7475,7 +7475,7 @@
     <t>Imperatorus</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 3 сек.</t>
+    <t>4 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>Матизик</t>
@@ -7487,7 +7487,7 @@
     <t>bancir</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 20 сек.</t>
+    <t>4 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>962–964</t>
@@ -7544,13 +7544,13 @@
     <t>Pricel2</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 10 сек.</t>
+    <t>5 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>Гончаренко</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 21 сек.</t>
+    <t>5 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>vovetRU</t>
@@ -7562,7 +7562,7 @@
     <t>HappyHardcore</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 54 сек.</t>
+    <t>3 ч. 03 мин. 54 сек.</t>
   </si>
   <si>
     <t>973–977</t>
@@ -7577,7 +7577,7 @@
     <t>DcDimon</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 4 сек.</t>
+    <t>2 ч. 35 мин. 04 сек.</t>
   </si>
   <si>
     <t>VQV</t>
@@ -7589,7 +7589,7 @@
     <t>бо1</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 2 сек.</t>
+    <t>2 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>EDAMY</t>
@@ -7604,7 +7604,7 @@
     <t>anho</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 51 сек.</t>
+    <t>6 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>UnLess_24</t>
@@ -7637,7 +7637,7 @@
     <t>Sony_bee</t>
   </si>
   <si>
-    <t>4 ч. 49 мин. 0 сек.</t>
+    <t>4 ч. 49 мин. 00 сек.</t>
   </si>
   <si>
     <t>justup</t>
@@ -7661,7 +7661,7 @@
     <t>сударь</t>
   </si>
   <si>
-    <t>2 ч. 48 мин. 3 сек.</t>
+    <t>2 ч. 48 мин. 03 сек.</t>
   </si>
   <si>
     <t>988–989</t>
@@ -7712,7 +7712,7 @@
     <t>formax</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 33 сек.</t>
+    <t>3 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>cornelius</t>
@@ -7739,7 +7739,7 @@
     <t>саша</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 16 сек.</t>
+    <t>2 ч. 04 мин. 16 сек.</t>
   </si>
   <si>
     <t>Анетточка</t>
@@ -7805,7 +7805,7 @@
     <t>Ergond</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 20 сек.</t>
+    <t>7 ч. 03 мин. 20 сек.</t>
   </si>
   <si>
     <t>pelei</t>
@@ -7841,13 +7841,13 @@
     <t>Stepan1990</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 56 сек.</t>
+    <t>5 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>YLuch</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 7 сек.</t>
+    <t>4 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>Palette</t>
@@ -7886,7 +7886,7 @@
     <t>pavel88</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 48 сек.</t>
+    <t>3 ч. 01 мин. 48 сек.</t>
   </si>
   <si>
     <t>lana-banana</t>
@@ -7904,7 +7904,7 @@
     <t>Defaul</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 22 сек.</t>
+    <t>2 ч. 02 мин. 22 сек.</t>
   </si>
   <si>
     <t>mountaineer</t>
@@ -7919,19 +7919,19 @@
     <t>Arkadyan</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 37 сек.</t>
+    <t>4 ч. 03 мин. 37 сек.</t>
   </si>
   <si>
     <t>gevis</t>
   </si>
   <si>
-    <t>3 ч. 50 мин. 7 сек.</t>
+    <t>3 ч. 50 мин. 07 сек.</t>
   </si>
   <si>
     <t>Leonid_KTRP</t>
   </si>
   <si>
-    <t>2 ч. 25 мин. 6 сек.</t>
+    <t>2 ч. 25 мин. 06 сек.</t>
   </si>
   <si>
     <t>stanislavzubar</t>
@@ -7943,7 +7943,7 @@
     <t>petzsch</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 3 сек.</t>
+    <t>1 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>icecoffin</t>
@@ -7964,13 +7964,13 @@
     <t>nadgarstek</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 18 сек.</t>
+    <t>6 ч. 08 мин. 18 сек.</t>
   </si>
   <si>
     <t>Дмитрий-Сол</t>
   </si>
   <si>
-    <t>3 ч. 12 мин. 3 сек.</t>
+    <t>3 ч. 12 мин. 03 сек.</t>
   </si>
   <si>
     <t>molonya</t>
@@ -8063,7 +8063,7 @@
     <t>dabro</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 53 сек.</t>
+    <t>3 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>1048–1052</t>
@@ -8078,7 +8078,7 @@
     <t>digit47</t>
   </si>
   <si>
-    <t>3 ч. 42 мин. 1 сек.</t>
+    <t>3 ч. 42 мин. 01 сек.</t>
   </si>
   <si>
     <t>PXM</t>
@@ -8096,7 +8096,7 @@
     <t>siplo</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 23 сек.</t>
+    <t>2 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>1053–1056</t>
@@ -8114,7 +8114,7 @@
     <t>Hodorr</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 49 сек.</t>
+    <t>5 ч. 09 мин. 49 сек.</t>
   </si>
   <si>
     <t>Дед_Мазай</t>
@@ -8138,7 +8138,7 @@
     <t>sayanoGOREC</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 18 сек.</t>
+    <t>2 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>1060–1063</t>
@@ -8147,19 +8147,19 @@
     <t>aael</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 20 сек.</t>
+    <t>3 ч. 02 мин. 20 сек.</t>
   </si>
   <si>
     <t>Katyakop</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 5 сек.</t>
+    <t>2 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>anclaw</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 20 сек.</t>
+    <t>3 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>ionasovich</t>
@@ -8210,19 +8210,19 @@
     <t>LuperZaluper</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 13 сек.</t>
+    <t>3 ч. 07 мин. 13 сек.</t>
   </si>
   <si>
     <t>ilya_138</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 29 сек.</t>
+    <t>3 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>ВитекД</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 9 сек.</t>
+    <t>2 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>kinka</t>
@@ -8243,7 +8243,7 @@
     <t>Танитка</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 29 сек.</t>
+    <t>5 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>roadto500spm</t>
@@ -8279,7 +8279,7 @@
     <t>Mirion</t>
   </si>
   <si>
-    <t>2 ч. 17 мин. 5 сек.</t>
+    <t>2 ч. 17 мин. 05 сек.</t>
   </si>
   <si>
     <t>1082–1084</t>
@@ -8288,7 +8288,7 @@
     <t>TuzemooN</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 3 сек.</t>
+    <t>3 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>nikolay51</t>
@@ -8330,7 +8330,7 @@
     <t>azukun</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 49 сек.</t>
+    <t>2 ч. 07 мин. 49 сек.</t>
   </si>
   <si>
     <t>1090–1097</t>
@@ -8339,7 +8339,7 @@
     <t>Nolan_Joke</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 3 сек.</t>
+    <t>3 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>Dopeman</t>
@@ -8357,7 +8357,7 @@
     <t>CiberRus</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 30 сек.</t>
+    <t>4 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>valeryani</t>
@@ -8369,13 +8369,13 @@
     <t>Noiz</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 56 сек.</t>
+    <t>6 ч. 06 мин. 56 сек.</t>
   </si>
   <si>
     <t>Wassjaja</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 0 сек.</t>
+    <t>2 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>1098–1100</t>
@@ -8459,7 +8459,7 @@
     <t>Вовчик-инженер</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 3 сек.</t>
+    <t>3 ч. 34 мин. 03 сек.</t>
   </si>
   <si>
     <t>artt</t>
@@ -8471,7 +8471,7 @@
     <t>Hell_Knight</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 2 сек.</t>
+    <t>2 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>1114–1119</t>
@@ -8486,7 +8486,7 @@
     <t>oboltuz</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 4 сек.</t>
+    <t>2 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>Katinchen</t>
@@ -8531,7 +8531,7 @@
     <t>suffering</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 7 сек.</t>
+    <t>1 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>nezemlyanin</t>
@@ -8552,7 +8552,7 @@
     <t>JWRoosi4</t>
   </si>
   <si>
-    <t>6 ч. 10 мин. 1 сек.</t>
+    <t>6 ч. 10 мин. 01 сек.</t>
   </si>
   <si>
     <t>sakh10</t>
@@ -8564,7 +8564,7 @@
     <t>iaoz</t>
   </si>
   <si>
-    <t>3 ч. 24 мин. 7 сек.</t>
+    <t>3 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>Papa_Wolf</t>
@@ -8588,7 +8588,7 @@
     <t>KinDK</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 45 сек.</t>
+    <t>2 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>spirit_son</t>
@@ -8639,7 +8639,7 @@
     <t>puton</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 32 сек.</t>
+    <t>4 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>Gil_ru</t>
@@ -8681,13 +8681,13 @@
     <t>Кинолог</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 0 сек.</t>
+    <t>2 ч. 02 мин. 00 сек.</t>
   </si>
   <si>
     <t>hotkeys</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 14 сек.</t>
+    <t>3 ч. 04 мин. 14 сек.</t>
   </si>
   <si>
     <t>1148–1156</t>
@@ -8714,7 +8714,7 @@
     <t>Konstantine</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 24 сек.</t>
+    <t>4 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>Dima716</t>
@@ -8726,7 +8726,7 @@
     <t>Radonezhskiy</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 13 сек.</t>
+    <t>2 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>Gorynych</t>
@@ -8750,7 +8750,7 @@
     <t>eanahin8</t>
   </si>
   <si>
-    <t>2 ч. 48 мин. 2 сек.</t>
+    <t>2 ч. 48 мин. 02 сек.</t>
   </si>
   <si>
     <t>-Vovik-</t>
@@ -8762,7 +8762,7 @@
     <t>dehasevr</t>
   </si>
   <si>
-    <t>4 ч. 14 мин. 1 сек.</t>
+    <t>4 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>leptoptr</t>
@@ -8795,7 +8795,7 @@
     <t>kernal_debuger</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 35 сек.</t>
+    <t>2 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>1165–1173</t>
@@ -8816,7 +8816,7 @@
     <t>Хирург_Смерти</t>
   </si>
   <si>
-    <t>2 ч. 31 мин. 7 сек.</t>
+    <t>2 ч. 31 мин. 07 сек.</t>
   </si>
   <si>
     <t>kukhmax</t>
@@ -8834,13 +8834,13 @@
     <t>Вета79</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 43 сек.</t>
+    <t>4 ч. 06 мин. 43 сек.</t>
   </si>
   <si>
     <t>DOGS</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 1 сек.</t>
+    <t>2 ч. 01 мин. 01 сек.</t>
   </si>
   <si>
     <t>dmital</t>
@@ -8888,7 +8888,7 @@
     <t>Алуний</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 0 сек.</t>
+    <t>2 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>Наугад</t>
@@ -8909,7 +8909,7 @@
     <t>ктоточегото</t>
   </si>
   <si>
-    <t>4 ч. 45 мин. 7 сек.</t>
+    <t>4 ч. 45 мин. 07 сек.</t>
   </si>
   <si>
     <t>moonwwwind</t>
@@ -8966,7 +8966,7 @@
     <t>O_legich</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 7 сек.</t>
+    <t>2 ч. 05 мин. 07 сек.</t>
   </si>
   <si>
     <t>Вартик</t>
@@ -8981,7 +8981,7 @@
     <t>Soulreader</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 53 сек.</t>
+    <t>4 ч. 00 мин. 53 сек.</t>
   </si>
   <si>
     <t>sasha561</t>
@@ -9020,19 +9020,19 @@
     <t>strengthofgod</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 6 сек.</t>
+    <t>1 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>swik</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 1 сек.</t>
+    <t>2 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>Alex_Volo</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 43 сек.</t>
+    <t>2 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>orelik</t>
@@ -9050,7 +9050,7 @@
     <t>ITur</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 29 сек.</t>
+    <t>2 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>FastTemirRR</t>
@@ -9074,7 +9074,7 @@
     <t>Инженер555</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 7 сек.</t>
+    <t>1 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>lirik777</t>
@@ -9086,7 +9086,7 @@
     <t>kryto</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 30 сек.</t>
+    <t>2 ч. 09 мин. 30 сек.</t>
   </si>
   <si>
     <t>1210–1214</t>
@@ -9113,13 +9113,13 @@
     <t>gangres</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 5 сек.</t>
+    <t>2 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>Тарья</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 6 сек.</t>
+    <t>2 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>1215–1219</t>
@@ -9128,7 +9128,7 @@
     <t>Энтони26</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 33 сек.</t>
+    <t>3 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>zpslon</t>
@@ -9146,7 +9146,7 @@
     <t>Berkut1</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 58 сек.</t>
+    <t>4 ч. 04 мин. 58 сек.</t>
   </si>
   <si>
     <t>Pavellum</t>
@@ -9161,7 +9161,7 @@
     <t>Alekeks</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 5 сек.</t>
+    <t>3 ч. 19 мин. 05 сек.</t>
   </si>
   <si>
     <t>serg386</t>
@@ -9179,31 +9179,31 @@
     <t>apchhi</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 53 сек.</t>
+    <t>3 ч. 03 мин. 53 сек.</t>
   </si>
   <si>
     <t>greenbear</t>
   </si>
   <si>
-    <t>2 ч. 21 мин. 8 сек.</t>
+    <t>2 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>Попутчик</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 8 сек.</t>
+    <t>1 ч. 53 мин. 08 сек.</t>
   </si>
   <si>
     <t>-777-</t>
   </si>
   <si>
-    <t>3 ч. 13 мин. 2 сек.</t>
+    <t>3 ч. 13 мин. 02 сек.</t>
   </si>
   <si>
     <t>205i</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 58 сек.</t>
+    <t>4 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>Asted</t>
@@ -9215,7 +9215,7 @@
     <t>barera</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 32 сек.</t>
+    <t>3 ч. 05 мин. 32 сек.</t>
   </si>
   <si>
     <t>Mortal_Angel</t>
@@ -9239,7 +9239,7 @@
     <t>KiberBot</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 12 сек.</t>
+    <t>2 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>jjjkeg</t>
@@ -9257,13 +9257,13 @@
     <t>Иванна_</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 54 сек.</t>
+    <t>3 ч. 09 мин. 54 сек.</t>
   </si>
   <si>
     <t>niravel</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 5 сек.</t>
+    <t>3 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>greenSnake</t>
@@ -9275,7 +9275,7 @@
     <t>Кадий</t>
   </si>
   <si>
-    <t>1 ч. 34 мин. 8 сек.</t>
+    <t>1 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>Клолбок</t>
@@ -9299,13 +9299,13 @@
     <t>Bolot</t>
   </si>
   <si>
-    <t>1 ч. 39 мин. 5 сек.</t>
+    <t>1 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>wheeeL</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 24 сек.</t>
+    <t>2 ч. 07 мин. 24 сек.</t>
   </si>
   <si>
     <t>Fleur</t>
@@ -9326,13 +9326,13 @@
     <t>Trafalgar_Law</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 6 сек.</t>
+    <t>1 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>amt</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 30 сек.</t>
+    <t>2 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>asiegres</t>
@@ -9344,13 +9344,13 @@
     <t>_Влада_</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 5 сек.</t>
+    <t>3 ч. 06 мин. 05 сек.</t>
   </si>
   <si>
     <t>vogoniu</t>
   </si>
   <si>
-    <t>6 ч. 14 мин. 0 сек.</t>
+    <t>6 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>1252–1259</t>
@@ -9359,7 +9359,7 @@
     <t>Ягода</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 21 сек.</t>
+    <t>3 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>Briarey_</t>
@@ -9401,7 +9401,7 @@
     <t>azyl</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 7 сек.</t>
+    <t>2 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>1260–1264</t>
@@ -9416,7 +9416,7 @@
     <t>Yerlasdc</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 9 сек.</t>
+    <t>2 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>GreyFeather</t>
@@ -9449,7 +9449,7 @@
     <t>Novatin</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 6 сек.</t>
+    <t>2 ч. 38 мин. 06 сек.</t>
   </si>
   <si>
     <t>Garisson</t>
@@ -9479,7 +9479,7 @@
     <t>sashokcool</t>
   </si>
   <si>
-    <t>3 ч. 44 мин. 5 сек.</t>
+    <t>3 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>Alixan-Dag</t>
@@ -9506,13 +9506,13 @@
     <t>gala_top</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 5 сек.</t>
+    <t>1 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>jcdenton</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 6 сек.</t>
+    <t>2 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>Спелый</t>
@@ -9536,7 +9536,7 @@
     <t>SeaJey</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 34 сек.</t>
+    <t>3 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>Salamondro</t>
@@ -9560,7 +9560,7 @@
     <t>Radius</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 8 сек.</t>
+    <t>2 ч. 07 мин. 08 сек.</t>
   </si>
   <si>
     <t>samaja-samaja</t>
@@ -9581,7 +9581,7 @@
     <t>vdkrasniy</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 26 сек.</t>
+    <t>2 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>HotBeer</t>
@@ -9593,7 +9593,7 @@
     <t>dns1337</t>
   </si>
   <si>
-    <t>2 ч. 55 мин. 3 сек.</t>
+    <t>2 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>tony_bullet_</t>
@@ -9644,7 +9644,7 @@
     <t>algorithm</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 49 сек.</t>
+    <t>3 ч. 08 мин. 49 сек.</t>
   </si>
   <si>
     <t>Денис3аыпп</t>
@@ -9668,7 +9668,7 @@
     <t>Шарманщик</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 43 сек.</t>
+    <t>2 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>Кросафчег</t>
@@ -9689,7 +9689,7 @@
     <t>YaNemnogoTormoz</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 3 сек.</t>
+    <t>2 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>studykid</t>
@@ -9701,7 +9701,7 @@
     <t>arhibaboon</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 46 сек.</t>
+    <t>3 ч. 04 мин. 46 сек.</t>
   </si>
   <si>
     <t>lislkap</t>
@@ -9755,7 +9755,7 @@
     <t>Lusil</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 6 сек.</t>
+    <t>2 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>akmubi</t>
@@ -9767,7 +9767,7 @@
     <t>-ItachiUchiha-</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 9 сек.</t>
+    <t>1 ч. 53 мин. 09 сек.</t>
   </si>
   <si>
     <t>Zoomby</t>
@@ -9809,7 +9809,7 @@
     <t>Caballero</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 38 сек.</t>
+    <t>2 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>1325–1340</t>
@@ -9866,7 +9866,7 @@
     <t>dots_and_dashes</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 41 сек.</t>
+    <t>2 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>Healingproof</t>
@@ -9902,13 +9902,13 @@
     <t>l_y_n_x</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 2 сек.</t>
+    <t>2 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>baltazar</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 8 сек.</t>
+    <t>2 ч. 08 мин. 08 сек.</t>
   </si>
   <si>
     <t>1341–1349</t>
@@ -9917,7 +9917,7 @@
     <t>grpvrp</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 7 сек.</t>
+    <t>1 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>charliewoods</t>
@@ -9932,13 +9932,13 @@
     <t>karl_hungus</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 1 сек.</t>
+    <t>1 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>Хом</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 40 сек.</t>
+    <t>3 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>iOlga</t>
@@ -9971,7 +9971,7 @@
     <t>Flexx971</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 24 сек.</t>
+    <t>6 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>episkop</t>
@@ -9983,13 +9983,13 @@
     <t>macrophageNT</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 49 сек.</t>
+    <t>3 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>ябохтыздох</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 16 сек.</t>
+    <t>3 ч. 03 мин. 16 сек.</t>
   </si>
   <si>
     <t>tomattopasta</t>
@@ -10001,7 +10001,7 @@
     <t>ДедМороз</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 33 сек.</t>
+    <t>2 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>GAS_BURF</t>
@@ -10019,7 +10019,7 @@
     <t>vafli</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 7 сек.</t>
+    <t>1 ч. 30 мин. 07 сек.</t>
   </si>
   <si>
     <t>1359–1369</t>
@@ -10028,7 +10028,7 @@
     <t>Igem</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 38 сек.</t>
+    <t>3 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>qwAlxi</t>
@@ -10052,7 +10052,7 @@
     <t>asalaga</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 0 сек.</t>
+    <t>2 ч. 50 мин. 00 сек.</t>
   </si>
   <si>
     <t>Перфил</t>
@@ -10064,7 +10064,7 @@
     <t>yoyu</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 34 сек.</t>
+    <t>2 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>KEKSKIK</t>
@@ -10115,7 +10115,7 @@
     <t>Владимир1989</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 31 сек.</t>
+    <t>3 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>welcome</t>
@@ -10133,13 +10133,13 @@
     <t>Andrey999K</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 5 сек.</t>
+    <t>1 ч. 52 мин. 05 сек.</t>
   </si>
   <si>
     <t>_kerfoer_</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 46 сек.</t>
+    <t>2 ч. 00 мин. 46 сек.</t>
   </si>
   <si>
     <t>Ladynec</t>
@@ -10184,7 +10184,7 @@
     <t>MyxaMopxD</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 8 сек.</t>
+    <t>2 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>r0w</t>
@@ -10208,7 +10208,7 @@
     <t>stasostrouhov</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 54 сек.</t>
+    <t>4 ч. 06 мин. 54 сек.</t>
   </si>
   <si>
     <t>Djon_Right</t>
@@ -10232,25 +10232,25 @@
     <t>Ivanov13</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 7 сек.</t>
+    <t>3 ч. 05 мин. 07 сек.</t>
   </si>
   <si>
     <t>Lobster28</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 51 сек.</t>
+    <t>2 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>_ulanochka</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 5 сек.</t>
+    <t>1 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>Tellmeboo</t>
   </si>
   <si>
-    <t>2 ч. 21 мин. 7 сек.</t>
+    <t>2 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>Связист</t>
@@ -10262,13 +10262,13 @@
     <t>Swatsded</t>
   </si>
   <si>
-    <t>2 ч. 22 мин. 9 сек.</t>
+    <t>2 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>Explorerpro</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 2 сек.</t>
+    <t>1 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>1399–1409</t>
@@ -10277,7 +10277,7 @@
     <t>forbatyr</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 1 сек.</t>
+    <t>2 ч. 24 мин. 01 сек.</t>
   </si>
   <si>
     <t>LiKa21</t>
@@ -10310,7 +10310,7 @@
     <t>skillup</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 11 сек.</t>
+    <t>2 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>петрови4</t>
@@ -10334,7 +10334,7 @@
     <t>Pastor_nak</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 1 сек.</t>
+    <t>1 ч. 18 мин. 01 сек.</t>
   </si>
   <si>
     <t>1410–1416</t>
@@ -10343,7 +10343,7 @@
     <t>sanme</t>
   </si>
   <si>
-    <t>2 ч. 43 мин. 6 сек.</t>
+    <t>2 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>dima9968</t>
@@ -10379,7 +10379,7 @@
     <t>banzaichik</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 43 сек.</t>
+    <t>2 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>1417–1420</t>
@@ -10391,7 +10391,7 @@
     <t>gek1</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 9 сек.</t>
+    <t>2 ч. 30 мин. 09 сек.</t>
   </si>
   <si>
     <t>VROOM-VROOM</t>
@@ -10421,7 +10421,7 @@
     <t>lazy</t>
   </si>
   <si>
-    <t>1 ч. 34 мин. 5 сек.</t>
+    <t>1 ч. 34 мин. 05 сек.</t>
   </si>
   <si>
     <t>HRAP</t>
@@ -10439,13 +10439,13 @@
     <t>Batterc</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 18 сек.</t>
+    <t>1 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>Малышка_Эн</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 2 сек.</t>
+    <t>1 ч. 40 мин. 02 сек.</t>
   </si>
   <si>
     <t>laserdance</t>
@@ -10460,7 +10460,7 @@
     <t>Vgerasimov777</t>
   </si>
   <si>
-    <t>5 ч. 39 мин. 0 сек.</t>
+    <t>5 ч. 39 мин. 00 сек.</t>
   </si>
   <si>
     <t>Roodyaman</t>
@@ -10484,19 +10484,19 @@
     <t>NinaVladi</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 2 сек.</t>
+    <t>1 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>Asjay</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 25 сек.</t>
+    <t>3 ч. 07 мин. 25 сек.</t>
   </si>
   <si>
     <t>inine</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 46 сек.</t>
+    <t>2 ч. 09 мин. 46 сек.</t>
   </si>
   <si>
     <t>1436–1445</t>
@@ -10544,13 +10544,13 @@
     <t>AngelOfDream</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 59 сек.</t>
+    <t>1 ч. 04 мин. 59 сек.</t>
   </si>
   <si>
     <t>_Хантер_</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 2 сек.</t>
+    <t>1 ч. 16 мин. 02 сек.</t>
   </si>
   <si>
     <t>АДР</t>
@@ -10577,7 +10577,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>1 ч. 51 мин. 4 сек.</t>
+    <t>1 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>уфхцщ</t>
@@ -10613,7 +10613,7 @@
     <t>Rit</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 2 сек.</t>
+    <t>2 ч. 36 мин. 02 сек.</t>
   </si>
   <si>
     <t>LadyIrina</t>
@@ -10637,13 +10637,13 @@
     <t>Коретай</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 20 сек.</t>
+    <t>1 ч. 06 мин. 20 сек.</t>
   </si>
   <si>
     <t>Cheers</t>
   </si>
   <si>
-    <t>1 ч. 12 мин. 8 сек.</t>
+    <t>1 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>JuljaJulia</t>
@@ -10667,7 +10667,7 @@
     <t>sklippy</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 7 сек.</t>
+    <t>1 ч. 46 мин. 07 сек.</t>
   </si>
   <si>
     <t>MrYellow</t>
@@ -10709,7 +10709,7 @@
     <t>Haarspalter</t>
   </si>
   <si>
-    <t>1 ч. 39 мин. 8 сек.</t>
+    <t>1 ч. 39 мин. 08 сек.</t>
   </si>
   <si>
     <t>Eriuty</t>
@@ -10721,7 +10721,7 @@
     <t>Маркизик</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 12 сек.</t>
+    <t>2 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>pairbit</t>
@@ -10784,7 +10784,7 @@
     <t>timofeytrsv27</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 16 сек.</t>
+    <t>5 ч. 01 мин. 16 сек.</t>
   </si>
   <si>
     <t>NePhiLiM</t>
@@ -10796,7 +10796,7 @@
     <t>etojan</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 27 сек.</t>
+    <t>1 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>Origin</t>
@@ -10826,7 +10826,7 @@
     <t>firelly</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 11 сек.</t>
+    <t>1 ч. 06 мин. 11 сек.</t>
   </si>
   <si>
     <t>BeTka</t>
@@ -10838,7 +10838,7 @@
     <t>ЛОР</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 6 сек.</t>
+    <t>2 ч. 08 мин. 06 сек.</t>
   </si>
   <si>
     <t>1492–1504</t>
@@ -10847,7 +10847,7 @@
     <t>evg64</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 31 сек.</t>
+    <t>2 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>отпросился</t>
@@ -10859,7 +10859,7 @@
     <t>eeight</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 3 сек.</t>
+    <t>2 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>KeSeG</t>
@@ -10874,13 +10874,13 @@
     <t>С_майлик</t>
   </si>
   <si>
-    <t>1 ч. 38 мин. 8 сек.</t>
+    <t>1 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>Mantis43</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 1 сек.</t>
+    <t>3 ч. 03 мин. 01 сек.</t>
   </si>
   <si>
     <t>zhenya033</t>
@@ -10898,7 +10898,7 @@
     <t>Yankovich</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>forsaZ</t>
@@ -10907,7 +10907,7 @@
     <t>pram</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 37 сек.</t>
+    <t>2 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>БезИМЯнный</t>
@@ -10922,7 +10922,7 @@
     <t>Etl0n</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 17 сек.</t>
+    <t>3 ч. 00 мин. 17 сек.</t>
   </si>
   <si>
     <t>Бир</t>
@@ -10934,7 +10934,7 @@
     <t>WANWAN</t>
   </si>
   <si>
-    <t>6 ч. 14 мин. 2 сек.</t>
+    <t>6 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>CJION</t>
@@ -11000,7 +11000,7 @@
     <t>vladex</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 40 сек.</t>
+    <t>2 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>zvv</t>
@@ -11015,7 +11015,7 @@
     <t>tkipzk</t>
   </si>
   <si>
-    <t>3 ч. 26 мин. 9 сек.</t>
+    <t>3 ч. 26 мин. 09 сек.</t>
   </si>
   <si>
     <t>karpenus</t>
@@ -11024,19 +11024,19 @@
     <t>arokoko</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 57 сек.</t>
+    <t>3 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>Fantorn</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 7 сек.</t>
+    <t>5 ч. 08 мин. 07 сек.</t>
   </si>
   <si>
     <t>valera512</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 37 сек.</t>
+    <t>3 ч. 05 мин. 37 сек.</t>
   </si>
   <si>
     <t>датычто</t>
@@ -11048,7 +11048,7 @@
     <t>valera1956219</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 24 сек.</t>
+    <t>3 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>gekon</t>
@@ -11066,7 +11066,7 @@
     <t>SectuSempra</t>
   </si>
   <si>
-    <t>3 ч. 25 мин. 8 сек.</t>
+    <t>3 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>Avensis</t>
@@ -11078,7 +11078,7 @@
     <t>Camaxtli</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 33 сек.</t>
+    <t>2 ч. 09 мин. 33 сек.</t>
   </si>
   <si>
     <t>Малыш</t>
@@ -11096,13 +11096,13 @@
     <t>vjuh</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 9 сек.</t>
+    <t>2 ч. 50 мин. 09 сек.</t>
   </si>
   <si>
     <t>fugas_ananas</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 9 сек.</t>
+    <t>1 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>abrglav</t>
@@ -11114,7 +11114,7 @@
     <t>СистемныйАнализ</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 4 сек.</t>
+    <t>1 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>сивый</t>
@@ -11138,13 +11138,13 @@
     <t>Тебятожка</t>
   </si>
   <si>
-    <t>2 ч. 20 мин. 1 сек.</t>
+    <t>2 ч. 20 мин. 01 сек.</t>
   </si>
   <si>
     <t>nebovluje</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 57 сек.</t>
+    <t>1 ч. 05 мин. 57 сек.</t>
   </si>
   <si>
     <t>Эль_Чувачино</t>
@@ -11165,19 +11165,19 @@
     <t>KlavoKlaxon</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 32 сек.</t>
+    <t>5 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>1977</t>
   </si>
   <si>
-    <t>3 ч. 38 мин. 9 сек.</t>
+    <t>3 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>zsb</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 25 сек.</t>
+    <t>4 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>учусь_водить</t>
@@ -11186,7 +11186,7 @@
     <t>Ladimir</t>
   </si>
   <si>
-    <t>2 ч. 21 мин. 6 сек.</t>
+    <t>2 ч. 21 мин. 06 сек.</t>
   </si>
   <si>
     <t>Kilovoltov</t>
@@ -11306,7 +11306,7 @@
     <t>iron-fan</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 27 сек.</t>
+    <t>3 ч. 05 мин. 27 сек.</t>
   </si>
   <si>
     <t>itrump1k</t>
@@ -11324,7 +11324,7 @@
     <t>-Wanted-</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 33 сек.</t>
+    <t>1 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>Etulino</t>
@@ -11354,7 +11354,7 @@
     <t>KompoZZytor</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 45 сек.</t>
+    <t>2 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>1577–1586</t>
@@ -11363,7 +11363,7 @@
     <t>Misha20062006</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 2 сек.</t>
+    <t>2 ч. 56 мин. 02 сек.</t>
   </si>
   <si>
     <t>kuznetsovmedia</t>
@@ -11375,7 +11375,7 @@
     <t>Vadim04</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 7 сек.</t>
+    <t>2 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>Trantar</t>
@@ -11432,19 +11432,19 @@
     <t>ятвояклавиатура</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 4 сек.</t>
+    <t>2 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>raschoska</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 37 сек.</t>
+    <t>2 ч. 03 мин. 37 сек.</t>
   </si>
   <si>
     <t>Модильяни</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 30 сек.</t>
+    <t>2 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>81243534355</t>
@@ -11462,31 +11462,31 @@
     <t>Liudmyla</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 29 сек.</t>
+    <t>2 ч. 00 мин. 29 сек.</t>
   </si>
   <si>
     <t>Кусака</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 8 сек.</t>
+    <t>1 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>ЕвгенияСеверная</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 41 сек.</t>
+    <t>2 ч. 06 мин. 41 сек.</t>
   </si>
   <si>
     <t>Yaffi</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 3 сек.</t>
+    <t>2 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>Etoneja</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 6 сек.</t>
+    <t>1 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>ifer</t>
@@ -11498,7 +11498,7 @@
     <t>Silvelu</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 30 сек.</t>
+    <t>1 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>PieceOfManKIND</t>
